--- a/doc/small/small_data.xlsx
+++ b/doc/small/small_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-525" yWindow="3765" windowWidth="21180" windowHeight="10110" activeTab="5"/>
+    <workbookView xWindow="-525" yWindow="3765" windowWidth="20610" windowHeight="10110" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="sequencing" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="first nucleotide (unique)" sheetId="4" r:id="rId4"/>
     <sheet name="HD adapters" sheetId="5" r:id="rId5"/>
     <sheet name="classification" sheetId="6" r:id="rId6"/>
+    <sheet name="single reads diff expr" sheetId="7" r:id="rId7"/>
+    <sheet name="assembly diff expr" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="338">
   <si>
     <t>sample</t>
   </si>
@@ -948,7 +950,91 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>segemehl (unique)</t>
+    <t>segemehl (ALL unique)</t>
+  </si>
+  <si>
+    <t>segemehl (ALL expression)</t>
+  </si>
+  <si>
+    <t>segemehl (notaligning unique 90% match)</t>
+  </si>
+  <si>
+    <t>CPA-sRNA</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>WT_1 (control)</t>
+  </si>
+  <si>
+    <t>WT_2 (control)</t>
+  </si>
+  <si>
+    <t>WT_vs_EXP5.down.fa</t>
+  </si>
+  <si>
+    <t>WT_vs_EXP5.up.fa</t>
+  </si>
+  <si>
+    <t>WT_vs_RBP35.down.fa</t>
+  </si>
+  <si>
+    <t>WT_vs_RBP35.up.fa</t>
+  </si>
+  <si>
+    <t>ncrna_out</t>
+  </si>
+  <si>
+    <t>rrna_out</t>
+  </si>
+  <si>
+    <t>retro_out</t>
+  </si>
+  <si>
+    <t>transcripts_out</t>
+  </si>
+  <si>
+    <t>introns_out</t>
+  </si>
+  <si>
+    <t>intergenic_out</t>
+  </si>
+  <si>
+    <t>est_out</t>
+  </si>
+  <si>
+    <t>segemehl (perfect match)</t>
+  </si>
+  <si>
+    <t>segemehl (90% match)</t>
+  </si>
+  <si>
+    <t>unkown</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>ncrna</t>
+  </si>
+  <si>
+    <t>retro</t>
+  </si>
+  <si>
+    <t>rrna</t>
+  </si>
+  <si>
+    <t>transcripts</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>blast</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1114,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1994,11 +2080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187683584"/>
-        <c:axId val="187685120"/>
+        <c:axId val="130686336"/>
+        <c:axId val="130688128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187683584"/>
+        <c:axId val="130686336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187685120"/>
+        <c:crossAx val="130688128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2016,7 +2102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187685120"/>
+        <c:axId val="130688128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,14 +2113,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187683584"/>
+        <c:crossAx val="130686336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2052,7 +2137,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3018,11 +3103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145703296"/>
-        <c:axId val="145704832"/>
+        <c:axId val="130728704"/>
+        <c:axId val="130730240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145703296"/>
+        <c:axId val="130728704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145704832"/>
+        <c:crossAx val="130730240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3040,7 +3125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145704832"/>
+        <c:axId val="130730240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,14 +3136,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145703296"/>
+        <c:crossAx val="130728704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3076,7 +3160,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4042,11 +4126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186629120"/>
-        <c:axId val="186635008"/>
+        <c:axId val="130754432"/>
+        <c:axId val="130755968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186629120"/>
+        <c:axId val="130754432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4056,7 +4140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186635008"/>
+        <c:crossAx val="130755968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4064,7 +4148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186635008"/>
+        <c:axId val="130755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,14 +4159,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186629120"/>
+        <c:crossAx val="130754432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4100,7 +4183,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4706,11 +4789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150583552"/>
-        <c:axId val="184820480"/>
+        <c:axId val="130798720"/>
+        <c:axId val="130800256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150583552"/>
+        <c:axId val="130798720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,7 +4803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184820480"/>
+        <c:crossAx val="130800256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4728,7 +4811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184820480"/>
+        <c:axId val="130800256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,7 +4822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150583552"/>
+        <c:crossAx val="130798720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4764,7 +4847,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5370,11 +5453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184704384"/>
-        <c:axId val="184755328"/>
+        <c:axId val="129644416"/>
+        <c:axId val="129645952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184704384"/>
+        <c:axId val="129644416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5384,7 +5467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184755328"/>
+        <c:crossAx val="129645952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5392,7 +5475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184755328"/>
+        <c:axId val="129645952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5403,7 +5486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184704384"/>
+        <c:crossAx val="129644416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5428,7 +5511,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6034,11 +6117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186966400"/>
-        <c:axId val="186967936"/>
+        <c:axId val="129684224"/>
+        <c:axId val="129685760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186966400"/>
+        <c:axId val="129684224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6048,7 +6131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186967936"/>
+        <c:crossAx val="129685760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6056,7 +6139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186967936"/>
+        <c:axId val="129685760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6067,7 +6150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186966400"/>
+        <c:crossAx val="129684224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6092,7 +6175,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6214,58 +6297,58 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>2.0291238959178802E-2</c:v>
+                  <c:v>6.2985751295336789E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1272380042969686E-2</c:v>
+                  <c:v>5.1003886010362695E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5674385294819763E-2</c:v>
+                  <c:v>8.7111398963730574E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15278109333969922</c:v>
+                  <c:v>0.14880181347150259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1804726665075197</c:v>
+                  <c:v>0.16645077720207255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15660062067319169</c:v>
+                  <c:v>0.14183937823834197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1396514681308188</c:v>
+                  <c:v>0.12354274611398963</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12150871329672953</c:v>
+                  <c:v>0.1092940414507772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2571019336357123E-2</c:v>
+                  <c:v>6.9462435233160619E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4826927667701122E-2</c:v>
+                  <c:v>2.266839378238342E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8326569587013608E-3</c:v>
+                  <c:v>7.9339378238341973E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4905705418954402E-3</c:v>
+                  <c:v>3.8860103626943004E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7744091668656006E-3</c:v>
+                  <c:v>3.2383419689119169E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3420864168059203E-3</c:v>
+                  <c:v>1.2953367875647669E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1616137502984007E-4</c:v>
+                  <c:v>3.2383419689119172E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.5488183337312006E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3872045834328001E-4</c:v>
+                  <c:v>1.6191709844559586E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -6395,40 +6478,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0427528675703858E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.920415224913495E-3</c:v>
+                  <c:v>1.1470281543274244E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1903114186851208E-2</c:v>
+                  <c:v>6.1522419186652764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15224913494809689</c:v>
+                  <c:v>0.15172054223149115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19896193771626297</c:v>
+                  <c:v>0.20333680917622524</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17128027681660898</c:v>
+                  <c:v>0.19760166840458812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17128027681660898</c:v>
+                  <c:v>0.15849843587069865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16089965397923875</c:v>
+                  <c:v>0.13138686131386862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5743944636678195E-2</c:v>
+                  <c:v>6.1522419186652764E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5570934256055362E-2</c:v>
+                  <c:v>1.5119916579770595E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7301038062283738E-3</c:v>
+                  <c:v>2.6068821689259644E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.0427528675703858E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -6437,19 +6520,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.2137643378519292E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.2137643378519292E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7301038062283738E-3</c:v>
+                  <c:v>1.0427528675703858E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7301038062283738E-3</c:v>
+                  <c:v>5.2137643378519292E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.2137643378519292E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -6576,58 +6659,58 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.3515315876050326E-2</c:v>
+                  <c:v>1.3378607809847199E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1587605032676831E-2</c:v>
+                  <c:v>3.1918505942275043E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7312941804116839E-2</c:v>
+                  <c:v>7.7668364459535941E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13586449117503224</c:v>
+                  <c:v>0.13652518392756083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16145022896012093</c:v>
+                  <c:v>0.16224108658743633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16113902102876451</c:v>
+                  <c:v>0.16092812676853424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15226959498510648</c:v>
+                  <c:v>0.15169213355970571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13742053083181435</c:v>
+                  <c:v>0.13711375212224108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6226826123682918E-2</c:v>
+                  <c:v>8.5795132993774753E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8231005201618281E-2</c:v>
+                  <c:v>2.7934352009054895E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.113635353221002E-3</c:v>
+                  <c:v>7.9909451046972276E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0453918997021294E-3</c:v>
+                  <c:v>2.9654782116581777E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9561641399546527E-3</c:v>
+                  <c:v>1.9468024900962083E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2003734495176278E-3</c:v>
+                  <c:v>1.2224108658743633E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8904103498866318E-4</c:v>
+                  <c:v>4.9801924165251835E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3337482772418085E-4</c:v>
+                  <c:v>1.3582342954159593E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4458275908060288E-5</c:v>
+                  <c:v>4.5274476513865307E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -6757,76 +6840,257 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.4660965180207697E-2</c:v>
+                  <c:v>1.4983117613956105E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.769361297766918E-2</c:v>
+                  <c:v>5.7118739448508725E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15882712278558339</c:v>
+                  <c:v>0.15728756330894766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3425643114097604</c:v>
+                  <c:v>0.34341586944288127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26328649969456325</c:v>
+                  <c:v>0.26491277433877319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.149460395031562E-2</c:v>
+                  <c:v>6.1409679234665164E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1652073576325256E-2</c:v>
+                  <c:v>2.1454698930782216E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8326206475259621E-2</c:v>
+                  <c:v>1.8289251547552055E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1538722595533835E-2</c:v>
+                  <c:v>1.1606640405177265E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1766103305504645E-3</c:v>
+                  <c:v>6.0495216657287564E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6652412950519244E-3</c:v>
+                  <c:v>3.5875070343275185E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0543677458766036E-3</c:v>
+                  <c:v>3.0247608328643782E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2579922622683771E-3</c:v>
+                  <c:v>3.1654473832301634E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2579922622683771E-3</c:v>
+                  <c:v>3.1654473832301634E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6336116201724023E-3</c:v>
+                  <c:v>5.416432189082724E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6517342021312703E-3</c:v>
+                  <c:v>6.823297692740574E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9729858141586911E-3</c:v>
+                  <c:v>6.0495216657287564E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2263625873888546E-3</c:v>
+                  <c:v>5.2757456387169388E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5792438742957987E-3</c:v>
+                  <c:v>2.6027011817670231E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0362451639177356E-3</c:v>
+                  <c:v>2.0399549803038828E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0181225819588678E-3</c:v>
+                  <c:v>9.1446257737760265E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0859974207561257E-3</c:v>
+                  <c:v>1.1254924029262803E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.7149935518903142E-4</c:v>
+                  <c:v>2.1102982554867754E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.7874838797257856E-5</c:v>
+                  <c:v>7.0343275182892519E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'reads length (unique)'!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WT_1 (control)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'reads length (unique)'!$X$2:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reads length (unique)'!$AC$2:$AC$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2.1039064207052063E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4653460967197174E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0318934273160175E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1289572645943414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15628602087186985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14735837356170842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1352345718984343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12224825971916657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3027473834969445E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8680279294174474E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.922027280101838E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3821399283983578E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1110020072167803E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0297517473578422E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0344075348918681E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3407208464810898E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0403203762138177E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.626222442789014E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5296584192968814E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2734892575421015E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6365584149622133E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2561691617547798E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.4924112343985123E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3962196385240544E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6843,11 +7107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126909056"/>
-        <c:axId val="126931328"/>
+        <c:axId val="134484736"/>
+        <c:axId val="134487040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126909056"/>
+        <c:axId val="134484736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6857,7 +7121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126931328"/>
+        <c:crossAx val="134487040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6865,7 +7129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126931328"/>
+        <c:axId val="134487040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6876,7 +7140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126909056"/>
+        <c:crossAx val="134484736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6901,7 +7165,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7276,11 +7540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181215232"/>
-        <c:axId val="181216768"/>
+        <c:axId val="129857792"/>
+        <c:axId val="129871872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181215232"/>
+        <c:axId val="129857792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7289,7 +7553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181216768"/>
+        <c:crossAx val="129871872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7297,7 +7561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181216768"/>
+        <c:axId val="129871872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7308,7 +7572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181215232"/>
+        <c:crossAx val="129857792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7333,7 +7597,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7368,9 +7632,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'first nucleotide (unique)'!$Y$1:$AB$1</c:f>
+              <c:f>'first nucleotide (unique)'!$Y$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>exp5_down</c:v>
                 </c:pt>
@@ -7382,27 +7646,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>rbp35_up</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WT_2 (control)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'first nucleotide (unique)'!$Y$2:$AB$2</c:f>
+              <c:f>'first nucleotide (unique)'!$Y$2:$AC$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.19646693721651945</c:v>
+                  <c:v>0.22150259067357514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40484429065743943</c:v>
+                  <c:v>0.20855057351407716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25258969457164449</c:v>
+                  <c:v>0.25283531409168081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1766782053892618E-2</c:v>
+                  <c:v>9.0883511536297132E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24521964962752682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7425,9 +7695,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'first nucleotide (unique)'!$Y$1:$AB$1</c:f>
+              <c:f>'first nucleotide (unique)'!$Y$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>exp5_down</c:v>
                 </c:pt>
@@ -7439,27 +7709,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>rbp35_up</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WT_2 (control)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'first nucleotide (unique)'!$Y$3:$AB$3</c:f>
+              <c:f>'first nucleotide (unique)'!$Y$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.15851038433993794</c:v>
+                  <c:v>0.17648963730569947</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27508650519031141</c:v>
+                  <c:v>0.14129301355578727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16840794913973237</c:v>
+                  <c:v>0.16808149405772496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1833978144301908E-2</c:v>
+                  <c:v>6.1691052335396734E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1777749728504201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7482,9 +7758,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'first nucleotide (unique)'!$Y$1:$AB$1</c:f>
+              <c:f>'first nucleotide (unique)'!$Y$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>exp5_down</c:v>
                 </c:pt>
@@ -7496,27 +7772,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>rbp35_up</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WT_2 (control)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'first nucleotide (unique)'!$Y$4:$AB$4</c:f>
+              <c:f>'first nucleotide (unique)'!$Y$4:$AC$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.17283361184053472</c:v>
+                  <c:v>0.19025259067357514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17301038062283736</c:v>
+                  <c:v>0.14181438998957246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17612146000978082</c:v>
+                  <c:v>0.17523486134691568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7308762641688727E-2</c:v>
+                  <c:v>4.6989307822172199E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18909861013203269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7539,9 +7821,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'first nucleotide (unique)'!$Y$1:$AB$1</c:f>
+              <c:f>'first nucleotide (unique)'!$Y$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>exp5_down</c:v>
                 </c:pt>
@@ -7553,27 +7835,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>rbp35_up</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WT_2 (control)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'first nucleotide (unique)'!$Y$5:$AB$5</c:f>
+              <c:f>'first nucleotide (unique)'!$Y$5:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.47218906660300786</c:v>
+                  <c:v>0.41175518134715028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14705882352941177</c:v>
+                  <c:v>0.50834202294056308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40288089627884233</c:v>
+                  <c:v>0.40384833050367858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79909047716011672</c:v>
+                  <c:v>0.80043612830613398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38790676739002039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,11 +7876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142240384"/>
-        <c:axId val="142811136"/>
+        <c:axId val="135498752"/>
+        <c:axId val="135599232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142240384"/>
+        <c:axId val="135498752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7601,7 +7889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142811136"/>
+        <c:crossAx val="135599232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7609,7 +7897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142811136"/>
+        <c:axId val="135599232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7620,7 +7908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142240384"/>
+        <c:crossAx val="135498752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7832,19 +8120,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="6 Gráfico"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7896,20 +8184,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7928,7 +8216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8217,10 +8505,10 @@
   <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -8720,7 +9008,7 @@
       <selection activeCell="H1" activeCellId="1" sqref="A1:A1048576 H1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -12062,10 +12350,10 @@
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -12134,6 +12422,9 @@
       <c r="AB1" t="s">
         <v>300</v>
       </c>
+      <c r="AC1" t="s">
+        <v>314</v>
+      </c>
       <c r="AE1" t="s">
         <v>299</v>
       </c>
@@ -12222,31 +12513,37 @@
       </c>
       <c r="Y2" s="2">
         <f>AE2/AE$26</f>
-        <v>2.0291238959178802E-2</v>
+        <v>6.2985751295336789E-2</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" ref="Z2:AB17" si="1">AF2/AF$26</f>
-        <v>0</v>
+        <v>1.0427528675703858E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="1"/>
-        <v>1.3515315876050326E-2</v>
+        <v>1.3378607809847199E-2</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="1"/>
-        <v>1.4660965180207697E-2</v>
+        <v>1.4983117613956105E-2</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>2.1039064207052063E-2</v>
+      </c>
+      <c r="AD2">
+        <v>16</v>
       </c>
       <c r="AE2">
-        <v>85</v>
+        <v>389</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG2">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="AH2">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -12324,31 +12621,37 @@
       </c>
       <c r="Y3" s="2">
         <f t="shared" ref="Y3:Y25" si="3">AE3/AE$26</f>
-        <v>3.1272380042969686E-2</v>
+        <v>5.1003886010362695E-2</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="1"/>
-        <v>6.920415224913495E-3</v>
+        <v>1.1470281543274244E-2</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="1"/>
-        <v>3.1587605032676831E-2</v>
+        <v>3.1918505942275043E-2</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="1"/>
-        <v>5.769361297766918E-2</v>
+        <v>5.7118739448508725E-2</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>3.4653460967197174E-2</v>
+      </c>
+      <c r="AD3">
+        <v>17</v>
       </c>
       <c r="AE3">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="AF3">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AG3">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="AH3">
-        <v>850</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -12426,31 +12729,37 @@
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="3"/>
-        <v>7.5674385294819763E-2</v>
+        <v>8.7111398963730574E-2</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="1"/>
-        <v>5.1903114186851208E-2</v>
+        <v>6.1522419186652764E-2</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="1"/>
-        <v>7.7312941804116839E-2</v>
+        <v>7.7668364459535941E-2</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="1"/>
-        <v>0.15882712278558339</v>
+        <v>0.15728756330894766</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>7.0318934273160175E-2</v>
+      </c>
+      <c r="AD4">
+        <v>18</v>
       </c>
       <c r="AE4">
-        <v>317</v>
+        <v>538</v>
       </c>
       <c r="AF4">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="AG4">
-        <v>3478</v>
+        <v>3431</v>
       </c>
       <c r="AH4">
-        <v>2340</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -12528,31 +12837,37 @@
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="3"/>
-        <v>0.15278109333969922</v>
+        <v>0.14880181347150259</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="1"/>
-        <v>0.15224913494809689</v>
+        <v>0.15172054223149115</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="1"/>
-        <v>0.13586449117503224</v>
+        <v>0.13652518392756083</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="1"/>
-        <v>0.3425643114097604</v>
+        <v>0.34341586944288127</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.1289572645943414</v>
+      </c>
+      <c r="AD5">
+        <v>19</v>
       </c>
       <c r="AE5">
-        <v>640</v>
+        <v>919</v>
       </c>
       <c r="AF5">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="AG5">
-        <v>6112</v>
+        <v>6031</v>
       </c>
       <c r="AH5">
-        <v>5047</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -12630,31 +12945,37 @@
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="3"/>
-        <v>0.1804726665075197</v>
+        <v>0.16645077720207255</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="1"/>
-        <v>0.19896193771626297</v>
+        <v>0.20333680917622524</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="1"/>
-        <v>0.16145022896012093</v>
+        <v>0.16224108658743633</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="1"/>
-        <v>0.26328649969456325</v>
+        <v>0.26491277433877319</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.15628602087186985</v>
+      </c>
+      <c r="AD6">
+        <v>20</v>
       </c>
       <c r="AE6">
-        <v>756</v>
+        <v>1028</v>
       </c>
       <c r="AF6">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="AG6">
-        <v>7263</v>
+        <v>7167</v>
       </c>
       <c r="AH6">
-        <v>3879</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -12732,31 +13053,37 @@
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="3"/>
-        <v>0.15660062067319169</v>
+        <v>0.14183937823834197</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="1"/>
-        <v>0.17128027681660898</v>
+        <v>0.19760166840458812</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="1"/>
-        <v>0.16113902102876451</v>
+        <v>0.16092812676853424</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="1"/>
-        <v>6.149460395031562E-2</v>
+        <v>6.1409679234665164E-2</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0.14735837356170842</v>
+      </c>
+      <c r="AD7">
+        <v>21</v>
       </c>
       <c r="AE7">
-        <v>656</v>
+        <v>876</v>
       </c>
       <c r="AF7">
-        <v>99</v>
+        <v>379</v>
       </c>
       <c r="AG7">
-        <v>7249</v>
+        <v>7109</v>
       </c>
       <c r="AH7">
-        <v>906</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -12834,31 +13161,37 @@
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="3"/>
-        <v>0.1396514681308188</v>
+        <v>0.12354274611398963</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="1"/>
-        <v>0.17128027681660898</v>
+        <v>0.15849843587069865</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="1"/>
-        <v>0.15226959498510648</v>
+        <v>0.15169213355970571</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="1"/>
-        <v>2.1652073576325256E-2</v>
+        <v>2.1454698930782216E-2</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0.1352345718984343</v>
+      </c>
+      <c r="AD8">
+        <v>22</v>
       </c>
       <c r="AE8">
-        <v>585</v>
+        <v>763</v>
       </c>
       <c r="AF8">
-        <v>99</v>
+        <v>304</v>
       </c>
       <c r="AG8">
-        <v>6850</v>
+        <v>6701</v>
       </c>
       <c r="AH8">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -12936,31 +13269,37 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="3"/>
-        <v>0.12150871329672953</v>
+        <v>0.1092940414507772</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="1"/>
-        <v>0.16089965397923875</v>
+        <v>0.13138686131386862</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="1"/>
-        <v>0.13742053083181435</v>
+        <v>0.13711375212224108</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="1"/>
-        <v>1.8326206475259621E-2</v>
+        <v>1.8289251547552055E-2</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0.12224825971916657</v>
+      </c>
+      <c r="AD9">
+        <v>23</v>
       </c>
       <c r="AE9">
-        <v>509</v>
+        <v>675</v>
       </c>
       <c r="AF9">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="AG9">
-        <v>6182</v>
+        <v>6057</v>
       </c>
       <c r="AH9">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -13038,31 +13377,37 @@
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="3"/>
-        <v>7.2571019336357123E-2</v>
+        <v>6.9462435233160619E-2</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="1"/>
-        <v>6.5743944636678195E-2</v>
+        <v>6.1522419186652764E-2</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="1"/>
-        <v>8.6226826123682918E-2</v>
+        <v>8.5795132993774753E-2</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="1"/>
-        <v>1.1538722595533835E-2</v>
+        <v>1.1606640405177265E-2</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>8.3027473834969445E-2</v>
+      </c>
+      <c r="AD10">
+        <v>24</v>
       </c>
       <c r="AE10">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="AF10">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AG10">
-        <v>3879</v>
+        <v>3790</v>
       </c>
       <c r="AH10">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -13140,31 +13485,37 @@
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="3"/>
-        <v>2.4826927667701122E-2</v>
+        <v>2.266839378238342E-2</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="1"/>
-        <v>1.5570934256055362E-2</v>
+        <v>1.5119916579770595E-2</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="1"/>
-        <v>2.8231005201618281E-2</v>
+        <v>2.7934352009054895E-2</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="1"/>
-        <v>6.1766103305504645E-3</v>
+        <v>6.0495216657287564E-3</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>3.8680279294174474E-2</v>
+      </c>
+      <c r="AD11">
+        <v>25</v>
       </c>
       <c r="AE11">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AF11">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AG11">
-        <v>1270</v>
+        <v>1234</v>
       </c>
       <c r="AH11">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -13242,31 +13593,37 @@
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="3"/>
-        <v>8.8326569587013608E-3</v>
+        <v>7.9339378238341973E-3</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="1"/>
-        <v>1.7301038062283738E-3</v>
+        <v>2.6068821689259644E-3</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="1"/>
-        <v>8.113635353221002E-3</v>
+        <v>7.9909451046972276E-3</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="1"/>
-        <v>3.6652412950519244E-3</v>
+        <v>3.5875070343275185E-3</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1.922027280101838E-2</v>
+      </c>
+      <c r="AD12">
+        <v>26</v>
       </c>
       <c r="AE12">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG12">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AH12">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -13344,31 +13701,37 @@
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="3"/>
-        <v>5.4905705418954402E-3</v>
+        <v>3.8860103626943004E-3</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0427528675703858E-3</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="1"/>
-        <v>3.0453918997021294E-3</v>
+        <v>2.9654782116581777E-3</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="1"/>
-        <v>3.0543677458766036E-3</v>
+        <v>3.0247608328643782E-3</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1.3821399283983578E-2</v>
+      </c>
+      <c r="AD13">
+        <v>27</v>
       </c>
       <c r="AE13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG13">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AH13">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -13446,7 +13809,7 @@
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="3"/>
-        <v>4.7744091668656006E-3</v>
+        <v>3.2383419689119169E-3</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="1"/>
@@ -13454,11 +13817,17 @@
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="1"/>
-        <v>1.9561641399546527E-3</v>
+        <v>1.9468024900962083E-3</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="1"/>
-        <v>3.2579922622683771E-3</v>
+        <v>3.1654473832301634E-3</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>1.1110020072167803E-2</v>
+      </c>
+      <c r="AD14">
+        <v>28</v>
       </c>
       <c r="AE14">
         <v>20</v>
@@ -13467,10 +13836,10 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH14">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -13548,7 +13917,7 @@
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="3"/>
-        <v>3.3420864168059203E-3</v>
+        <v>1.2953367875647669E-3</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="1"/>
@@ -13556,14 +13925,20 @@
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="1"/>
-        <v>1.2003734495176278E-3</v>
+        <v>1.2224108658743633E-3</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="1"/>
-        <v>3.2579922622683771E-3</v>
+        <v>3.1654473832301634E-3</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>8.0297517473578422E-3</v>
+      </c>
+      <c r="AD15">
+        <v>29</v>
       </c>
       <c r="AE15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -13572,7 +13947,7 @@
         <v>54</v>
       </c>
       <c r="AH15">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -13650,31 +14025,37 @@
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="3"/>
-        <v>7.1616137502984007E-4</v>
+        <v>3.2383419689119172E-4</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.2137643378519292E-4</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="1"/>
-        <v>4.8904103498866318E-4</v>
+        <v>4.9801924165251835E-4</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="1"/>
-        <v>5.6336116201724023E-3</v>
+        <v>5.416432189082724E-3</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>5.0344075348918681E-3</v>
+      </c>
+      <c r="AD16">
+        <v>30</v>
       </c>
       <c r="AE16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <v>22</v>
       </c>
       <c r="AH16">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -13752,31 +14133,37 @@
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="3"/>
-        <v>9.5488183337312006E-4</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.2137643378519292E-4</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="1"/>
-        <v>1.3337482772418085E-4</v>
+        <v>1.3582342954159593E-4</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="1"/>
-        <v>6.6517342021312703E-3</v>
+        <v>6.823297692740574E-3</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>2.3407208464810898E-3</v>
+      </c>
+      <c r="AD17">
+        <v>31</v>
       </c>
       <c r="AE17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
         <v>6</v>
       </c>
       <c r="AH17">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -13858,7 +14245,7 @@
       </c>
       <c r="Z18" s="2">
         <f t="shared" ref="Z18:Z25" si="11">AF18/AF$26</f>
-        <v>1.7301038062283738E-3</v>
+        <v>1.0427528675703858E-3</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" ref="AA18:AA25" si="12">AG18/AG$26</f>
@@ -13866,19 +14253,25 @@
       </c>
       <c r="AB18" s="2">
         <f t="shared" ref="AB18:AB25" si="13">AH18/AH$26</f>
-        <v>5.9729858141586911E-3</v>
+        <v>6.0495216657287564E-3</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>1.0403203762138177E-3</v>
+      </c>
+      <c r="AD18">
+        <v>32</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -13956,19 +14349,25 @@
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="3"/>
-        <v>2.3872045834328001E-4</v>
+        <v>1.6191709844559586E-4</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="11"/>
-        <v>1.7301038062283738E-3</v>
+        <v>5.2137643378519292E-4</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="12"/>
-        <v>4.4458275908060288E-5</v>
+        <v>4.5274476513865307E-5</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="13"/>
-        <v>5.2263625873888546E-3</v>
+        <v>5.2757456387169388E-3</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>5.626222442789014E-4</v>
+      </c>
+      <c r="AD19">
+        <v>33</v>
       </c>
       <c r="AE19">
         <v>1</v>
@@ -13980,7 +14379,7 @@
         <v>2</v>
       </c>
       <c r="AH19">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -14062,7 +14461,7 @@
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5.2137643378519292E-4</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="12"/>
@@ -14070,19 +14469,25 @@
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="13"/>
-        <v>2.5792438742957987E-3</v>
+        <v>2.6027011817670231E-3</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>3.5296584192968814E-4</v>
+      </c>
+      <c r="AD20">
+        <v>34</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
@@ -14172,7 +14577,13 @@
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="13"/>
-        <v>2.0362451639177356E-3</v>
+        <v>2.0399549803038828E-3</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>2.2734892575421015E-4</v>
+      </c>
+      <c r="AD21">
+        <v>35</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -14184,7 +14595,7 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
@@ -14274,7 +14685,13 @@
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="13"/>
-        <v>1.0181225819588678E-3</v>
+        <v>9.1446257737760265E-4</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>1.6365584149622133E-4</v>
+      </c>
+      <c r="AD22">
+        <v>36</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -14286,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
@@ -14376,7 +14793,13 @@
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="13"/>
-        <v>1.0859974207561257E-3</v>
+        <v>1.1254924029262803E-3</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>1.2561691617547798E-4</v>
+      </c>
+      <c r="AD23">
+        <v>37</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -14478,7 +14901,13 @@
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="13"/>
-        <v>2.7149935518903142E-4</v>
+        <v>2.1102982554867754E-4</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>8.4924112343985123E-5</v>
+      </c>
+      <c r="AD24">
+        <v>38</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -14490,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -14580,7 +15009,13 @@
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="13"/>
-        <v>6.7874838797257856E-5</v>
+        <v>7.0343275182892519E-5</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>5.3962196385240544E-5</v>
+      </c>
+      <c r="AD25">
+        <v>39</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -14666,16 +15101,20 @@
         <v>30</v>
       </c>
       <c r="AE26">
-        <v>4189</v>
+        <f>SUM(AE2:AE25)</f>
+        <v>6176</v>
       </c>
       <c r="AF26">
-        <v>578</v>
+        <f t="shared" ref="AF26:AH26" si="14">SUM(AF2:AF25)</f>
+        <v>1918</v>
       </c>
       <c r="AG26">
-        <v>44986</v>
+        <f t="shared" si="14"/>
+        <v>44175</v>
       </c>
       <c r="AH26">
-        <v>14733</v>
+        <f t="shared" si="14"/>
+        <v>14216</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -14780,24 +15219,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -14864,20 +15304,23 @@
       <c r="AB1" t="s">
         <v>300</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF1" t="s">
         <v>299</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>301</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -14951,43 +15394,46 @@
         <v>34</v>
       </c>
       <c r="Y2" s="2">
-        <f>AE2/AE$6</f>
-        <v>0.19646693721651945</v>
+        <f>AF2/AF$6</f>
+        <v>0.22150259067357514</v>
       </c>
       <c r="Z2" s="2">
-        <f t="shared" ref="Z2:AB5" si="1">AF2/AF$6</f>
-        <v>0.40484429065743943</v>
+        <f>AG2/AG$6</f>
+        <v>0.20855057351407716</v>
       </c>
       <c r="AA2" s="2">
-        <f t="shared" si="1"/>
-        <v>0.25258969457164449</v>
+        <f>AH2/AH$6</f>
+        <v>0.25283531409168081</v>
       </c>
       <c r="AB2" s="2">
-        <f t="shared" si="1"/>
-        <v>9.1766782053892618E-2</v>
-      </c>
-      <c r="AD2" t="s">
+        <f>AI2/AI$6</f>
+        <v>9.0883511536297132E-2</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.24521964962752682</v>
+      </c>
+      <c r="AE2" t="s">
         <v>34</v>
       </c>
-      <c r="AE2">
-        <v>823</v>
-      </c>
       <c r="AF2">
-        <v>234</v>
+        <v>1368</v>
       </c>
       <c r="AG2">
-        <v>11363</v>
+        <v>400</v>
       </c>
       <c r="AH2">
-        <v>1352</v>
+        <v>11169</v>
+      </c>
+      <c r="AI2">
+        <v>1292</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B5" si="2">M3/M$6</f>
+        <f t="shared" ref="B3:B5" si="1">M3/M$6</f>
         <v>0.17402170759175564</v>
       </c>
       <c r="C3" s="2">
@@ -15056,43 +15502,46 @@
         <v>35</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y5" si="3">AE3/AE$6</f>
-        <v>0.15851038433993794</v>
+        <f>AF3/AF$6</f>
+        <v>0.17648963730569947</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.27508650519031141</v>
+        <f>AG3/AG$6</f>
+        <v>0.14129301355578727</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16840794913973237</v>
+        <f>AH3/AH$6</f>
+        <v>0.16808149405772496</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" si="1"/>
-        <v>6.1833978144301908E-2</v>
-      </c>
-      <c r="AD3" t="s">
+        <f>AI3/AI$6</f>
+        <v>6.1691052335396734E-2</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.1777749728504201</v>
+      </c>
+      <c r="AE3" t="s">
         <v>35</v>
       </c>
-      <c r="AE3">
-        <v>664</v>
-      </c>
       <c r="AF3">
-        <v>159</v>
+        <v>1090</v>
       </c>
       <c r="AG3">
-        <v>7576</v>
+        <v>271</v>
       </c>
       <c r="AH3">
-        <v>911</v>
+        <v>7425</v>
+      </c>
+      <c r="AI3">
+        <v>877</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1854789292757415</v>
       </c>
       <c r="C4" s="2">
@@ -15161,43 +15610,46 @@
         <v>36</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.17283361184053472</v>
+        <f>AF4/AF$6</f>
+        <v>0.19025259067357514</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17301038062283736</v>
+        <f>AG4/AG$6</f>
+        <v>0.14181438998957246</v>
       </c>
       <c r="AA4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17612146000978082</v>
+        <f>AH4/AH$6</f>
+        <v>0.17523486134691568</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7308762641688727E-2</v>
-      </c>
-      <c r="AD4" t="s">
+        <f>AI4/AI$6</f>
+        <v>4.6989307822172199E-2</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.18909861013203269</v>
+      </c>
+      <c r="AE4" t="s">
         <v>36</v>
       </c>
-      <c r="AE4">
-        <v>724</v>
-      </c>
       <c r="AF4">
-        <v>100</v>
+        <v>1175</v>
       </c>
       <c r="AG4">
-        <v>7923</v>
+        <v>272</v>
       </c>
       <c r="AH4">
-        <v>697</v>
+        <v>7741</v>
+      </c>
+      <c r="AI4">
+        <v>668</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.39271807179144186</v>
       </c>
       <c r="C5" s="2">
@@ -15266,38 +15718,41 @@
         <v>37</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.47218906660300786</v>
+        <f>AF5/AF$6</f>
+        <v>0.41175518134715028</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14705882352941177</v>
+        <f>AG5/AG$6</f>
+        <v>0.50834202294056308</v>
       </c>
       <c r="AA5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.40288089627884233</v>
+        <f>AH5/AH$6</f>
+        <v>0.40384833050367858</v>
       </c>
       <c r="AB5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.79909047716011672</v>
-      </c>
-      <c r="AD5" t="s">
+        <f>AI5/AI$6</f>
+        <v>0.80043612830613398</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.38790676739002039</v>
+      </c>
+      <c r="AE5" t="s">
         <v>37</v>
       </c>
-      <c r="AE5">
-        <v>1978</v>
-      </c>
       <c r="AF5">
-        <v>85</v>
+        <v>2543</v>
       </c>
       <c r="AG5">
-        <v>18124</v>
+        <v>975</v>
       </c>
       <c r="AH5">
-        <v>11773</v>
+        <v>17840</v>
+      </c>
+      <c r="AI5">
+        <v>11379</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="M6">
         <v>2033390</v>
       </c>
@@ -15325,17 +15780,21 @@
       <c r="U6">
         <v>1364946</v>
       </c>
-      <c r="AE6">
-        <v>4189</v>
-      </c>
       <c r="AF6">
-        <v>578</v>
+        <f>SUM(AF2:AF5)</f>
+        <v>6176</v>
       </c>
       <c r="AG6">
-        <v>44986</v>
+        <f t="shared" ref="AG6:AI6" si="2">SUM(AG2:AG5)</f>
+        <v>1918</v>
       </c>
       <c r="AH6">
-        <v>14733</v>
+        <f t="shared" si="2"/>
+        <v>44175</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="2"/>
+        <v>14216</v>
       </c>
     </row>
   </sheetData>
@@ -15353,7 +15812,7 @@
       <selection activeCell="AH1" sqref="AH1:AQ257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -46704,1107 +47163,2195 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B11" si="0">J3/$Q3</f>
+        <v>4.468891850554985E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" si="1">K3/$Q3</f>
+        <v>3.1184376828842474E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D11" si="2">L3/$Q3</f>
+        <v>0.1125544042215217</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E11" si="3">M3/$Q3</f>
+        <v>0.14534791653347365</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="4">N3/$Q3</f>
+        <v>1.9371591283521606E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="5">O3/$Q3</f>
+        <v>1.1512302116170534E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H11" si="6">P3/$Q3</f>
+        <v>0.69299494932108452</v>
+      </c>
+      <c r="J3">
+        <v>9087</v>
+      </c>
+      <c r="K3">
+        <v>63410</v>
+      </c>
+      <c r="L3">
+        <v>228867</v>
+      </c>
+      <c r="M3">
+        <v>295549</v>
+      </c>
+      <c r="N3">
+        <v>3939</v>
+      </c>
+      <c r="O3">
+        <v>23409</v>
+      </c>
+      <c r="P3">
+        <f>Q3-SUM(J3:O3)</f>
+        <v>1409129</v>
+      </c>
+      <c r="Q3">
+        <v>2033390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.522973569941626E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0596726271823747E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2501510690071412E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13194529602876887</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="4"/>
+        <v>1.311604020430144E-3</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="5"/>
+        <v>8.2227340757014544E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="6"/>
+        <v>0.74189915534326278</v>
+      </c>
+      <c r="J4">
+        <v>9538</v>
+      </c>
+      <c r="K4">
+        <v>55763</v>
+      </c>
+      <c r="L4">
+        <v>250436</v>
+      </c>
+      <c r="M4">
+        <v>357225</v>
+      </c>
+      <c r="N4">
+        <v>3551</v>
+      </c>
+      <c r="O4">
+        <v>22262</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P11" si="7">Q4-SUM(J4:O4)</f>
+        <v>2008597</v>
+      </c>
+      <c r="Q4">
+        <v>2707372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2337230906695205E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3734848290466064E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12260376213683818</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12865312603294246</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1667061606009518E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="5"/>
+        <v>8.2016575377821116E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="6"/>
+        <v>0.71240617675070073</v>
+      </c>
+      <c r="J5">
+        <v>4285</v>
+      </c>
+      <c r="K5">
+        <v>31451</v>
+      </c>
+      <c r="L5">
+        <v>162462</v>
+      </c>
+      <c r="M5">
+        <v>170478</v>
+      </c>
+      <c r="N5">
+        <v>1546</v>
+      </c>
+      <c r="O5">
+        <v>10868</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>944008</v>
+      </c>
+      <c r="Q5">
+        <v>1325098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3104706736847767E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9554209521076751E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13376964876570333</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17904811649823801</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8738981895786442E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4375095273535926E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="6"/>
+        <v>0.62406856107818254</v>
+      </c>
+      <c r="J6">
+        <v>5630</v>
+      </c>
+      <c r="K6">
+        <v>35289</v>
+      </c>
+      <c r="L6">
+        <v>119345</v>
+      </c>
+      <c r="M6">
+        <v>159741</v>
+      </c>
+      <c r="N6">
+        <v>2564</v>
+      </c>
+      <c r="O6">
+        <v>12825</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>556774</v>
+      </c>
+      <c r="Q6">
+        <v>892168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1744258392620443E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9889138007030119E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9164358036340841E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23115728018152915</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1126680552925586E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="5"/>
+        <v>2.530516088275871E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.60319696899778663</v>
+      </c>
+      <c r="J7">
+        <v>15521</v>
+      </c>
+      <c r="K7">
+        <v>75134</v>
+      </c>
+      <c r="L7">
+        <v>249275</v>
+      </c>
+      <c r="M7">
+        <v>581073</v>
+      </c>
+      <c r="N7">
+        <v>12852</v>
+      </c>
+      <c r="O7">
+        <v>63611</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1516290</v>
+      </c>
+      <c r="Q7">
+        <v>2513756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2705503210221981E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2602422511717648E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7022862622485195E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29746698977072039</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="4"/>
+        <v>6.8255411064071844E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="5"/>
+        <v>3.3637668654358736E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.54617396501328863</v>
+      </c>
+      <c r="J8">
+        <v>16315</v>
+      </c>
+      <c r="K8">
+        <v>58808</v>
+      </c>
+      <c r="L8">
+        <v>226420</v>
+      </c>
+      <c r="M8">
+        <v>773963</v>
+      </c>
+      <c r="N8">
+        <v>17759</v>
+      </c>
+      <c r="O8">
+        <v>87520</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>1421060</v>
+      </c>
+      <c r="Q8">
+        <v>2601845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4341187929098982E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9523513805918326E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13344320390367836</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10134188943765199</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="4"/>
+        <v>9.624732732318313E-4</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>7.6529009988314089E-3</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.72364189978777815</v>
+      </c>
+      <c r="J9">
+        <v>3882</v>
+      </c>
+      <c r="K9">
+        <v>33374</v>
+      </c>
+      <c r="L9">
+        <v>150847</v>
+      </c>
+      <c r="M9">
+        <v>114559</v>
+      </c>
+      <c r="N9">
+        <v>1088</v>
+      </c>
+      <c r="O9">
+        <v>8651</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>818020</v>
+      </c>
+      <c r="Q9">
+        <v>1130421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1012631699277914E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9790710080591386E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11546192390496694</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15963774363175642</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9873968792272372E-3</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1199201707089374E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.67682176062644084</v>
+      </c>
+      <c r="J10">
+        <v>8568</v>
+      </c>
+      <c r="K10">
+        <v>50036</v>
+      </c>
+      <c r="L10">
+        <v>193928</v>
+      </c>
+      <c r="M10">
+        <v>268125</v>
+      </c>
+      <c r="N10">
+        <v>3338</v>
+      </c>
+      <c r="O10">
+        <v>18810</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>1136779</v>
+      </c>
+      <c r="Q10">
+        <v>1679584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6983543671324729E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7980594104089099E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12798381767483841</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14227376028062649</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3714828278920924E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="5"/>
+        <v>9.1168441828467939E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.68657514656257468</v>
+      </c>
+      <c r="J11">
+        <v>6413</v>
+      </c>
+      <c r="K11">
+        <v>38192</v>
+      </c>
+      <c r="L11">
+        <v>174691</v>
+      </c>
+      <c r="M11">
+        <v>194196</v>
+      </c>
+      <c r="N11">
+        <v>1872</v>
+      </c>
+      <c r="O11">
+        <v>12444</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>937138</v>
+      </c>
+      <c r="Q11">
+        <v>1364946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" t="s">
+        <v>307</v>
+      </c>
+      <c r="H14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:B23" si="8">J15/$Q15</f>
+        <v>4.3133124999556833E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:C23" si="9">K15/$Q15</f>
+        <v>5.6123823054793583E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:D23" si="10">L15/$Q15</f>
+        <v>0.26051518251547873</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15:E23" si="11">M15/$Q15</f>
+        <v>0.1002391251766557</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:F23" si="12">N15/$Q15</f>
+        <v>3.6270648274022244E-4</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ref="G15:G23" si="13">O15/$Q15</f>
+        <v>4.2935838699722289E-3</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15:H23" si="14">P15/$Q15</f>
+        <v>0.57415226640040384</v>
+      </c>
+      <c r="J15">
+        <v>103413</v>
+      </c>
+      <c r="K15">
+        <v>1345586</v>
+      </c>
+      <c r="L15">
+        <v>6245932</v>
+      </c>
+      <c r="M15">
+        <v>2403264</v>
+      </c>
+      <c r="N15">
+        <v>8696</v>
+      </c>
+      <c r="O15">
+        <v>102940</v>
+      </c>
+      <c r="P15">
+        <f>Q15-SUM(J15:O15)</f>
+        <v>13765478</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>23975309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="8"/>
+        <v>4.4071630568267382E-3</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="9"/>
+        <v>2.0207787808162604E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="10"/>
+        <v>0.23137959267270966</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="11"/>
+        <v>8.5668710228511136E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6179020489911469E-4</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="13"/>
+        <v>3.9893820795995592E-3</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="14"/>
+        <v>0.65418557394929122</v>
+      </c>
+      <c r="J16">
+        <v>165946</v>
+      </c>
+      <c r="K16">
+        <v>760898</v>
+      </c>
+      <c r="L16">
+        <v>8712298</v>
+      </c>
+      <c r="M16">
+        <v>3225744</v>
+      </c>
+      <c r="N16">
+        <v>6092</v>
+      </c>
+      <c r="O16">
+        <v>150215</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:P23" si="15">Q16-SUM(J16:O16)</f>
+        <v>24632508</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>37653701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6077156568873232E-3</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="9"/>
+        <v>2.4385984572351159E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="10"/>
+        <v>0.20516433038877821</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="11"/>
+        <v>8.2458115013299874E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="12"/>
+        <v>2.0298095385542822E-4</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="13"/>
+        <v>4.0628298097891476E-3</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="14"/>
+        <v>0.6821180436050388</v>
+      </c>
+      <c r="J17">
+        <v>20530</v>
+      </c>
+      <c r="K17">
+        <v>311401</v>
+      </c>
+      <c r="L17">
+        <v>2619881</v>
+      </c>
+      <c r="M17">
+        <v>1052963</v>
+      </c>
+      <c r="N17">
+        <v>2592</v>
+      </c>
+      <c r="O17">
+        <v>51881</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="15"/>
+        <v>8710423</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>12769671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="8"/>
+        <v>7.8314508112246137E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6837037841782677E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="10"/>
+        <v>0.18360880452929265</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="11"/>
+        <v>7.1861459977699535E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1137286446319923E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="13"/>
+        <v>4.1209643198945652E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="14"/>
+        <v>0.64462655387547396</v>
+      </c>
+      <c r="J18">
+        <v>60480</v>
+      </c>
+      <c r="K18">
+        <v>670617</v>
+      </c>
+      <c r="L18">
+        <v>1417957</v>
+      </c>
+      <c r="M18">
+        <v>554965</v>
+      </c>
+      <c r="N18">
+        <v>8601</v>
+      </c>
+      <c r="O18">
+        <v>31825</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="15"/>
+        <v>4978262</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>7722707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="8"/>
+        <v>2.8873336067248064E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="9"/>
+        <v>8.1930816018106895E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="10"/>
+        <v>0.27093584430754081</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1290676727057076</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1874684140158694E-3</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="13"/>
+        <v>6.0313312172348204E-3</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="14"/>
+        <v>0.48197353127014597</v>
+      </c>
+      <c r="J19">
+        <v>666621</v>
+      </c>
+      <c r="K19">
+        <v>1891600</v>
+      </c>
+      <c r="L19">
+        <v>6255305</v>
+      </c>
+      <c r="M19">
+        <v>2979885</v>
+      </c>
+      <c r="N19">
+        <v>27416</v>
+      </c>
+      <c r="O19">
+        <v>139250</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="15"/>
+        <v>11127695</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>23087772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="8"/>
+        <v>9.1861020969299656E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5413268278237591E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="10"/>
+        <v>0.30770721455600852</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="11"/>
+        <v>0.14563861221846269</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3917904331133065E-3</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="13"/>
+        <v>7.7834639617078705E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="14"/>
+        <v>0.45287954845554007</v>
+      </c>
+      <c r="J20">
+        <v>212553</v>
+      </c>
+      <c r="K20">
+        <v>1744953</v>
+      </c>
+      <c r="L20">
+        <v>7119896</v>
+      </c>
+      <c r="M20">
+        <v>3369865</v>
+      </c>
+      <c r="N20">
+        <v>32204</v>
+      </c>
+      <c r="O20">
+        <v>180098</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="15"/>
+        <v>10478972</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>23138541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5845708488013304E-3</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="9"/>
+        <v>2.4647820159156494E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="10"/>
+        <v>0.19526163812561936</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="11"/>
+        <v>4.9986148062227446E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6704074468017465E-4</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="13"/>
+        <v>2.9624980357498077E-3</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="14"/>
+        <v>0.72539028402376537</v>
+      </c>
+      <c r="J21">
+        <v>17445</v>
+      </c>
+      <c r="K21">
+        <v>271355</v>
+      </c>
+      <c r="L21">
+        <v>2149692</v>
+      </c>
+      <c r="M21">
+        <v>550312</v>
+      </c>
+      <c r="N21">
+        <v>1839</v>
+      </c>
+      <c r="O21">
+        <v>32615</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="15"/>
+        <v>7986032</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>11009290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="8"/>
+        <v>5.7815924642840369E-3</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="9"/>
+        <v>5.6773319778495167E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="10"/>
+        <v>0.22770947166758668</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="11"/>
+        <v>8.239911585253297E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="12"/>
+        <v>4.9566913097700844E-4</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="13"/>
+        <v>3.7775042700554646E-3</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="14"/>
+        <v>0.62306332683606869</v>
+      </c>
+      <c r="J22">
+        <v>104768</v>
+      </c>
+      <c r="K22">
+        <v>1028787</v>
+      </c>
+      <c r="L22">
+        <v>4126314</v>
+      </c>
+      <c r="M22">
+        <v>1493151</v>
+      </c>
+      <c r="N22">
+        <v>8982</v>
+      </c>
+      <c r="O22">
+        <v>68452</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="15"/>
+        <v>11290505</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>18120959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="8"/>
+        <v>3.2256573350072405E-3</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="9"/>
+        <v>3.4479253493288828E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="10"/>
+        <v>0.22173340241212597</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="11"/>
+        <v>7.8531470159149797E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="12"/>
+        <v>2.5684810266892523E-4</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="13"/>
+        <v>3.5425668761329679E-3</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="14"/>
+        <v>0.65823080162162628</v>
+      </c>
+      <c r="J23">
+        <v>39635</v>
+      </c>
+      <c r="K23">
+        <v>423661</v>
+      </c>
+      <c r="L23">
+        <v>2724531</v>
+      </c>
+      <c r="M23">
+        <v>964949</v>
+      </c>
+      <c r="N23">
+        <v>3156</v>
+      </c>
+      <c r="O23">
+        <v>43529</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="15"/>
+        <v>8087957</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>12287418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" t="s">
+        <v>312</v>
+      </c>
+      <c r="G28" t="s">
+        <v>313</v>
+      </c>
+      <c r="H28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" ref="B29:B37" si="16">J29/$Q29</f>
+        <v>4.4320076325741744E-3</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" ref="C29:C37" si="17">K29/$Q29</f>
+        <v>5.8327718735707364E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D37" si="18">L29/$Q29</f>
+        <v>0.41024299322805757</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:E37" si="19">M29/$Q29</f>
+        <v>0.1102336492261691</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" ref="F29:F37" si="20">N29/$Q29</f>
+        <v>2.4353419658796394E-3</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ref="G29:G37" si="21">O29/$Q29</f>
+        <v>5.539763645931179E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" ref="H29:H37" si="22">P29/$Q29</f>
+        <v>0.35893065275230035</v>
+      </c>
+      <c r="J29">
+        <v>9012</v>
+      </c>
+      <c r="K29">
+        <v>118603</v>
+      </c>
+      <c r="L29">
+        <v>834184</v>
+      </c>
+      <c r="M29">
+        <v>224148</v>
+      </c>
+      <c r="N29">
+        <v>4952</v>
+      </c>
+      <c r="O29">
+        <v>112645</v>
+      </c>
+      <c r="P29">
+        <f>Q29-SUM(J29:O29)</f>
+        <v>729846</v>
+      </c>
+      <c r="Q29">
+        <v>2033390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="16"/>
+        <v>4.5246829767021301E-3</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="17"/>
+        <v>4.0835910248019115E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="18"/>
+        <v>0.39396617827177055</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="19"/>
+        <v>0.10459958956508378</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="20"/>
+        <v>2.7044676535031018E-3</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="21"/>
+        <v>0.10977582689043101</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="22"/>
+        <v>0.3435933443944903</v>
+      </c>
+      <c r="J30">
+        <v>12250</v>
+      </c>
+      <c r="K30">
+        <v>110558</v>
+      </c>
+      <c r="L30">
+        <v>1066613</v>
+      </c>
+      <c r="M30">
+        <v>283190</v>
+      </c>
+      <c r="N30">
+        <v>7322</v>
+      </c>
+      <c r="O30">
+        <v>297204</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P37" si="23">Q30-SUM(J30:O30)</f>
+        <v>930235</v>
+      </c>
+      <c r="Q30">
+        <v>2707372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="16"/>
+        <v>3.0843001800621539E-3</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="17"/>
+        <v>4.1504100074107729E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="18"/>
+        <v>0.35168795062704794</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="19"/>
+        <v>9.7589008511068609E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="20"/>
+        <v>3.1718408751654596E-3</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="21"/>
+        <v>0.11329426200930044</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="22"/>
+        <v>0.38966853772324767</v>
+      </c>
+      <c r="J31">
+        <v>4087</v>
+      </c>
+      <c r="K31">
+        <v>54997</v>
+      </c>
+      <c r="L31">
+        <v>466021</v>
+      </c>
+      <c r="M31">
+        <v>129315</v>
+      </c>
+      <c r="N31">
+        <v>4203</v>
+      </c>
+      <c r="O31">
+        <v>150126</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="23"/>
+        <v>516349</v>
+      </c>
+      <c r="Q31">
+        <v>1325098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="16"/>
+        <v>5.7466755140287481E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="17"/>
+        <v>6.0814779279238888E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="18"/>
+        <v>0.30502999435083977</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="19"/>
+        <v>7.3783188816456097E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="20"/>
+        <v>3.2045534024981843E-3</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="21"/>
+        <v>6.1735009549770896E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="22"/>
+        <v>0.48968579908716742</v>
+      </c>
+      <c r="J32">
+        <v>5127</v>
+      </c>
+      <c r="K32">
+        <v>54257</v>
+      </c>
+      <c r="L32">
+        <v>272138</v>
+      </c>
+      <c r="M32">
+        <v>65827</v>
+      </c>
+      <c r="N32">
+        <v>2859</v>
+      </c>
+      <c r="O32">
+        <v>55078</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="23"/>
+        <v>436882</v>
+      </c>
+      <c r="Q32">
+        <v>892168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="16"/>
+        <v>9.718922600284197E-3</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="17"/>
+        <v>5.480325059393195E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="18"/>
+        <v>0.30128660060881007</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="19"/>
+        <v>0.1096065011878639</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="20"/>
+        <v>3.3686642617660584E-3</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="21"/>
+        <v>6.245673804458348E-2</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="22"/>
+        <v>0.45875932270276032</v>
+      </c>
+      <c r="J33">
+        <v>24431</v>
+      </c>
+      <c r="K33">
+        <v>137762</v>
+      </c>
+      <c r="L33">
+        <v>757361</v>
+      </c>
+      <c r="M33">
+        <v>275524</v>
+      </c>
+      <c r="N33">
+        <v>8468</v>
+      </c>
+      <c r="O33">
+        <v>157001</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="23"/>
+        <v>1153209</v>
+      </c>
+      <c r="Q33">
+        <v>2513756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="16"/>
+        <v>5.8696809379498007E-3</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="17"/>
+        <v>4.3732428334508779E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="18"/>
+        <v>0.27864880498261813</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="19"/>
+        <v>0.10156331372545252</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="20"/>
+        <v>3.7308140953823152E-3</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="21"/>
+        <v>5.253003157374863E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="22"/>
+        <v>0.51392492635033982</v>
+      </c>
+      <c r="J34">
+        <v>15272</v>
+      </c>
+      <c r="K34">
+        <v>113785</v>
+      </c>
+      <c r="L34">
+        <v>725001</v>
+      </c>
+      <c r="M34">
+        <v>264252</v>
+      </c>
+      <c r="N34">
+        <v>9707</v>
+      </c>
+      <c r="O34">
+        <v>136675</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="23"/>
+        <v>1337153</v>
+      </c>
+      <c r="Q34">
+        <v>2601845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="16"/>
+        <v>3.7030451486658512E-3</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="17"/>
+        <v>5.3247418439678666E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="18"/>
+        <v>0.3364560637143153</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="19"/>
+        <v>7.5479843350397771E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="20"/>
+        <v>3.0758451939587109E-3</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="21"/>
+        <v>0.13757175424023438</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="22"/>
+        <v>0.39046602991274931</v>
+      </c>
+      <c r="J35">
+        <v>4186</v>
+      </c>
+      <c r="K35">
+        <v>60192</v>
+      </c>
+      <c r="L35">
+        <v>380337</v>
+      </c>
+      <c r="M35">
+        <v>85324</v>
+      </c>
+      <c r="N35">
+        <v>3477</v>
+      </c>
+      <c r="O35">
+        <v>155514</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="23"/>
+        <v>441391</v>
+      </c>
+      <c r="Q35">
+        <v>1130421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="16"/>
+        <v>4.9125259588088475E-3</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="17"/>
+        <v>5.4273558214414999E-2</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="18"/>
+        <v>0.34149765656257741</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="19"/>
+        <v>8.6650623011412353E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="20"/>
+        <v>3.2138910587383544E-3</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="21"/>
+        <v>0.1206143902299617</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="22"/>
+        <v>0.38883735496408633</v>
+      </c>
+      <c r="J36">
+        <v>8251</v>
+      </c>
+      <c r="K36">
+        <v>91157</v>
+      </c>
+      <c r="L36">
+        <v>573574</v>
+      </c>
+      <c r="M36">
+        <v>145537</v>
+      </c>
+      <c r="N36">
+        <v>5398</v>
+      </c>
+      <c r="O36">
+        <v>202582</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="23"/>
+        <v>653085</v>
+      </c>
+      <c r="Q36">
+        <v>1679584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="16"/>
+        <v>4.0074845451761459E-3</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="17"/>
+        <v>4.6880242881403369E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="18"/>
+        <v>0.33874819956247354</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="19"/>
+        <v>8.6895745326188725E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="20"/>
+        <v>3.2301644167608097E-3</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="21"/>
+        <v>0.12937727939420315</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="22"/>
+        <v>0.39086088387379425</v>
+      </c>
+      <c r="J37">
+        <v>5470</v>
+      </c>
+      <c r="K37">
+        <v>63989</v>
+      </c>
+      <c r="L37">
+        <v>462373</v>
+      </c>
+      <c r="M37">
+        <v>118608</v>
+      </c>
+      <c r="N37">
+        <v>4409</v>
+      </c>
+      <c r="O37">
+        <v>176593</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="23"/>
+        <v>533504</v>
+      </c>
+      <c r="Q37">
+        <v>1364946</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>162</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1257</v>
+      </c>
+      <c r="I3">
+        <f>J3-SUM(B3:H3)</f>
+        <v>4673</v>
+      </c>
+      <c r="J3">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>104</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I6" si="0">J4-SUM(B4:H4)</f>
+        <v>1733</v>
+      </c>
+      <c r="J4">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>1477</v>
+      </c>
+      <c r="E5">
+        <v>440</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>12479</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>29678</v>
+      </c>
+      <c r="J5">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6">
+        <v>288</v>
+      </c>
+      <c r="C6">
+        <v>1092</v>
+      </c>
+      <c r="D6">
+        <v>5462</v>
+      </c>
+      <c r="E6">
+        <v>2491</v>
+      </c>
+      <c r="F6">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>170</v>
+      </c>
+      <c r="H6">
+        <v>997</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>3682</v>
+      </c>
+      <c r="J6">
+        <v>14216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>199</v>
+      </c>
+      <c r="D9">
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <v>351</v>
+      </c>
+      <c r="F9">
+        <v>260</v>
+      </c>
+      <c r="G9">
+        <v>163</v>
+      </c>
+      <c r="H9">
+        <v>3291</v>
+      </c>
+      <c r="I9">
+        <f>J9-SUM(B9:H9)</f>
+        <v>1792</v>
+      </c>
+      <c r="J9">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>164</v>
+      </c>
+      <c r="F10">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>58</v>
+      </c>
+      <c r="H10">
+        <v>752</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I12" si="1">J10-SUM(B10:H10)</f>
+        <v>811</v>
+      </c>
+      <c r="J10">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>205</v>
+      </c>
+      <c r="D11">
+        <v>4472</v>
+      </c>
+      <c r="E11">
+        <v>1988</v>
+      </c>
+      <c r="F11">
+        <v>1879</v>
+      </c>
+      <c r="G11">
+        <v>1288</v>
+      </c>
+      <c r="H11">
+        <v>25951</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>8321</v>
+      </c>
+      <c r="J11">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12">
+        <v>506</v>
+      </c>
+      <c r="C12">
+        <v>1181</v>
+      </c>
+      <c r="D12">
+        <v>8237</v>
+      </c>
+      <c r="E12">
+        <v>1800</v>
+      </c>
+      <c r="F12">
+        <v>149</v>
+      </c>
+      <c r="G12">
+        <v>231</v>
+      </c>
+      <c r="H12">
+        <v>1356</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+      <c r="J12">
+        <v>14216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" t="s">
-        <v>308</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>134</v>
+      </c>
+      <c r="I2">
+        <f>J2-SUM(B2:H2)</f>
+        <v>329</v>
+      </c>
+      <c r="J2">
+        <v>552</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2">
-        <f>J3/$Q3</f>
-        <v>4.6041339831512894E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <f>K3/$Q3</f>
-        <v>3.0487511003791698E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <f>L3/$Q3</f>
-        <v>0.1141458352800004</v>
-      </c>
-      <c r="E3" s="2">
-        <f>M3/$Q3</f>
-        <v>0.14438745149725335</v>
-      </c>
-      <c r="F3" s="2">
-        <f>N3/$Q3</f>
-        <v>1.9347001804867732E-3</v>
-      </c>
-      <c r="G3" s="2">
-        <f>O3/$Q3</f>
-        <v>1.1510334957878223E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <f>P3/$Q3</f>
-        <v>0.69293003309743828</v>
+        <v>317</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>41</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="0">J3-SUM(B3:H3)</f>
+        <v>235</v>
       </c>
       <c r="J3">
-        <v>9362</v>
-      </c>
-      <c r="K3">
-        <v>61993</v>
-      </c>
-      <c r="L3">
-        <v>232103</v>
-      </c>
-      <c r="M3">
-        <v>293596</v>
-      </c>
-      <c r="N3">
-        <v>3934</v>
-      </c>
-      <c r="O3">
-        <v>23405</v>
-      </c>
-      <c r="P3">
-        <f>Q3-SUM(J3:O3)</f>
-        <v>1408997</v>
-      </c>
-      <c r="Q3">
-        <v>2033390</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <f>J4/$Q4</f>
-        <v>3.6267642569990381E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <f>K4/$Q4</f>
-        <v>2.0030125154577944E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <f>L4/$Q4</f>
-        <v>9.3773592989807086E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <f>M4/$Q4</f>
-        <v>0.13118736545993678</v>
-      </c>
-      <c r="F4" s="2">
-        <f>N4/$Q4</f>
-        <v>1.3097572110518983E-3</v>
-      </c>
-      <c r="G4" s="2">
-        <f>O4/$Q4</f>
-        <v>8.220148542571911E-3</v>
-      </c>
-      <c r="H4" s="2">
-        <f>P4/$Q4</f>
-        <v>0.74185224638505531</v>
+        <v>318</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>208</v>
+      </c>
+      <c r="E4">
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>1356</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>3188</v>
       </c>
       <c r="J4">
-        <v>9819</v>
-      </c>
-      <c r="K4">
-        <v>54229</v>
-      </c>
-      <c r="L4">
-        <v>253880</v>
-      </c>
-      <c r="M4">
-        <v>355173</v>
-      </c>
-      <c r="N4">
-        <v>3546</v>
-      </c>
-      <c r="O4">
-        <v>22255</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P11" si="0">Q4-SUM(J4:O4)</f>
-        <v>2008470</v>
-      </c>
-      <c r="Q4">
-        <v>2707372</v>
+        <v>4999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <f>J5/$Q5</f>
-        <v>3.3861646459356215E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <f>K5/$Q5</f>
-        <v>2.3075274432532537E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <f>L5/$Q5</f>
-        <v>0.12417119337588615</v>
-      </c>
-      <c r="E5" s="2">
-        <f>M5/$Q5</f>
-        <v>0.12765319998973662</v>
-      </c>
-      <c r="F5" s="2">
-        <f>N5/$Q5</f>
-        <v>1.1651968382715844E-3</v>
-      </c>
-      <c r="G5" s="2">
-        <f>O5/$Q5</f>
-        <v>8.2024121989467957E-3</v>
-      </c>
-      <c r="H5" s="2">
-        <f>P5/$Q5</f>
-        <v>0.71234655851869066</v>
+        <v>319</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>350</v>
+      </c>
+      <c r="E5">
+        <v>488</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>106</v>
+      </c>
+      <c r="H5">
+        <v>54</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1117</v>
       </c>
       <c r="J5">
-        <v>4487</v>
-      </c>
-      <c r="K5">
-        <v>30577</v>
-      </c>
-      <c r="L5">
-        <v>164539</v>
-      </c>
-      <c r="M5">
-        <v>169153</v>
-      </c>
-      <c r="N5">
-        <v>1544</v>
-      </c>
-      <c r="O5">
-        <v>10869</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>943929</v>
-      </c>
-      <c r="Q5">
-        <v>1325098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2">
-        <f>J6/$Q6</f>
-        <v>6.5312811040073174E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <f>K6/$Q6</f>
-        <v>3.9632670080074602E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <f>L6/$Q6</f>
-        <v>0.13545206732364309</v>
-      </c>
-      <c r="E6" s="2">
-        <f>M6/$Q6</f>
-        <v>0.17718299692434608</v>
-      </c>
-      <c r="F6" s="2">
-        <f>N6/$Q6</f>
-        <v>2.8716564593215628E-3</v>
-      </c>
-      <c r="G6" s="2">
-        <f>O6/$Q6</f>
-        <v>1.4373974408407385E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <f>P6/$Q6</f>
-        <v>0.62395535370019994</v>
-      </c>
-      <c r="J6">
-        <v>5827</v>
-      </c>
-      <c r="K6">
-        <v>35359</v>
-      </c>
-      <c r="L6">
-        <v>120846</v>
-      </c>
-      <c r="M6">
-        <v>158077</v>
-      </c>
-      <c r="N6">
-        <v>2562</v>
-      </c>
-      <c r="O6">
-        <v>12824</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>556673</v>
-      </c>
-      <c r="Q6">
-        <v>892168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2">
-        <f>J7/$Q7</f>
-        <v>6.3598058045410931E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <f>K7/$Q7</f>
-        <v>2.9916984782930405E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <f>L7/$Q7</f>
-        <v>0.10025913414030638</v>
-      </c>
-      <c r="E7" s="2">
-        <f>M7/$Q7</f>
-        <v>0.22994395637444526</v>
-      </c>
-      <c r="F7" s="2">
-        <f>N7/$Q7</f>
-        <v>5.1094855666182397E-3</v>
-      </c>
-      <c r="G7" s="2">
-        <f>O7/$Q7</f>
-        <v>2.5303171827337261E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <f>P7/$Q7</f>
-        <v>0.60310746150382133</v>
-      </c>
-      <c r="J7">
-        <v>15987</v>
-      </c>
-      <c r="K7">
-        <v>75204</v>
-      </c>
-      <c r="L7">
-        <v>252027</v>
-      </c>
-      <c r="M7">
-        <v>578023</v>
-      </c>
-      <c r="N7">
-        <v>12844</v>
-      </c>
-      <c r="O7">
-        <v>63606</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>1516065</v>
-      </c>
-      <c r="Q7">
-        <v>2513756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2">
-        <f>J8/$Q8</f>
-        <v>6.4423514851960819E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <f>K8/$Q8</f>
-        <v>2.279036606715619E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <f>L8/$Q8</f>
-        <v>8.7811149395909435E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <f>M8/$Q8</f>
-        <v>0.29640966314288514</v>
-      </c>
-      <c r="F8" s="2">
-        <f>N8/$Q8</f>
-        <v>6.8167012254765364E-3</v>
-      </c>
-      <c r="G8" s="2">
-        <f>O8/$Q8</f>
-        <v>3.363689996906042E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <f>P8/$Q8</f>
-        <v>0.54609286871431617</v>
-      </c>
-      <c r="J8">
-        <v>16762</v>
-      </c>
-      <c r="K8">
-        <v>59297</v>
-      </c>
-      <c r="L8">
-        <v>228471</v>
-      </c>
-      <c r="M8">
-        <v>771212</v>
-      </c>
-      <c r="N8">
-        <v>17736</v>
-      </c>
-      <c r="O8">
-        <v>87518</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>1420849</v>
-      </c>
-      <c r="Q8">
-        <v>2601845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2">
-        <f>J9/$Q9</f>
-        <v>3.5942361297251202E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <f>K9/$Q9</f>
-        <v>2.8712311607799218E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <f>L9/$Q9</f>
-        <v>0.13538938147822802</v>
-      </c>
-      <c r="E9" s="2">
-        <f>M9/$Q9</f>
-        <v>0.10012022069653695</v>
-      </c>
-      <c r="F9" s="2">
-        <f>N9/$Q9</f>
-        <v>9.624732732318313E-4</v>
-      </c>
-      <c r="G9" s="2">
-        <f>O9/$Q9</f>
-        <v>7.6529009988314089E-3</v>
-      </c>
-      <c r="H9" s="2">
-        <f>P9/$Q9</f>
-        <v>0.72356847581564743</v>
-      </c>
-      <c r="J9">
-        <v>4063</v>
-      </c>
-      <c r="K9">
-        <v>32457</v>
-      </c>
-      <c r="L9">
-        <v>153047</v>
-      </c>
-      <c r="M9">
-        <v>113178</v>
-      </c>
-      <c r="N9">
-        <v>1088</v>
-      </c>
-      <c r="O9">
-        <v>8651</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>817937</v>
-      </c>
-      <c r="Q9">
-        <v>1130421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2">
-        <f>J10/$Q10</f>
-        <v>5.2411787680759041E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <f>K10/$Q10</f>
-        <v>2.9441814163507152E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <f>L10/$Q10</f>
-        <v>0.11691525996913521</v>
-      </c>
-      <c r="E10" s="2">
-        <f>M10/$Q10</f>
-        <v>0.15847674185988911</v>
-      </c>
-      <c r="F10" s="2">
-        <f>N10/$Q10</f>
-        <v>1.9868014937032027E-3</v>
-      </c>
-      <c r="G10" s="2">
-        <f>O10/$Q10</f>
-        <v>1.119860632156534E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <f>P10/$Q10</f>
-        <v>0.67673959742412404</v>
-      </c>
-      <c r="J10">
-        <v>8803</v>
-      </c>
-      <c r="K10">
-        <v>49450</v>
-      </c>
-      <c r="L10">
-        <v>196369</v>
-      </c>
-      <c r="M10">
-        <v>266175</v>
-      </c>
-      <c r="N10">
-        <v>3337</v>
-      </c>
-      <c r="O10">
-        <v>18809</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>1136641</v>
-      </c>
-      <c r="Q10">
-        <v>1679584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2">
-        <f>J11/$Q11</f>
-        <v>4.8588002748826695E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <f>K11/$Q11</f>
-        <v>2.7428923928126094E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <f>L11/$Q11</f>
-        <v>0.12960952301409726</v>
-      </c>
-      <c r="E11" s="2">
-        <f>M11/$Q11</f>
-        <v>0.14110741377314562</v>
-      </c>
-      <c r="F11" s="2">
-        <f>N11/$Q11</f>
-        <v>1.3700175684605838E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <f>O11/$Q11</f>
-        <v>9.1139136639837772E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <f>P11/$Q11</f>
-        <v>0.68651140777730402</v>
-      </c>
-      <c r="J11">
-        <v>6632</v>
-      </c>
-      <c r="K11">
-        <v>37439</v>
-      </c>
-      <c r="L11">
-        <v>176910</v>
-      </c>
-      <c r="M11">
-        <v>192604</v>
-      </c>
-      <c r="N11">
-        <v>1870</v>
-      </c>
-      <c r="O11">
-        <v>12440</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>937051</v>
-      </c>
-      <c r="Q11">
-        <v>1364946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" t="s">
-        <v>307</v>
-      </c>
-      <c r="H14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <f>J15/$Q15</f>
-        <v>3.904850611101613E-4</v>
-      </c>
-      <c r="C15" s="2">
-        <f>K15/$Q15</f>
-        <v>2.5857018151465745E-3</v>
-      </c>
-      <c r="D15" s="2">
-        <f>L15/$Q15</f>
-        <v>9.6809179810779505E-3</v>
-      </c>
-      <c r="E15" s="2">
-        <f>M15/$Q15</f>
-        <v>1.2245765007658505E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <f>N15/$Q15</f>
-        <v>1.6408547643744655E-4</v>
-      </c>
-      <c r="G15" s="2">
-        <f>O15/$Q15</f>
-        <v>9.7621265277540324E-4</v>
-      </c>
-      <c r="H15" s="2">
-        <f>P15/$Q15</f>
-        <v>0.97395683200579397</v>
-      </c>
-      <c r="J15">
-        <v>9362</v>
-      </c>
-      <c r="K15">
-        <v>61993</v>
-      </c>
-      <c r="L15">
-        <v>232103</v>
-      </c>
-      <c r="M15">
-        <v>293596</v>
-      </c>
-      <c r="N15">
-        <v>3934</v>
-      </c>
-      <c r="O15">
-        <v>23405</v>
-      </c>
-      <c r="P15">
-        <f>Q15-SUM(J15:O15)</f>
-        <v>23350916</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>23975309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2">
-        <f>J16/$Q16</f>
-        <v>2.607711789074864E-4</v>
-      </c>
-      <c r="C16" s="2">
-        <f>K16/$Q16</f>
-        <v>1.440203713308288E-3</v>
-      </c>
-      <c r="D16" s="2">
-        <f>L16/$Q16</f>
-        <v>6.7424979021318519E-3</v>
-      </c>
-      <c r="E16" s="2">
-        <f>M16/$Q16</f>
-        <v>9.4326185890730909E-3</v>
-      </c>
-      <c r="F16" s="2">
-        <f>N16/$Q16</f>
-        <v>9.4174009614619291E-5</v>
-      </c>
-      <c r="G16" s="2">
-        <f>O16/$Q16</f>
-        <v>5.9104415791690708E-4</v>
-      </c>
-      <c r="H16" s="2">
-        <f>P16/$Q16</f>
-        <v>0.98143869044904775</v>
-      </c>
-      <c r="J16">
-        <v>9819</v>
-      </c>
-      <c r="K16">
-        <v>54229</v>
-      </c>
-      <c r="L16">
-        <v>253880</v>
-      </c>
-      <c r="M16">
-        <v>355173</v>
-      </c>
-      <c r="N16">
-        <v>3546</v>
-      </c>
-      <c r="O16">
-        <v>22255</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ref="P16:P23" si="1">Q16-SUM(J16:O16)</f>
-        <v>36954799</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>37653701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2">
-        <f>J17/$Q17</f>
-        <v>3.5137945214093615E-4</v>
-      </c>
-      <c r="C17" s="2">
-        <f>K17/$Q17</f>
-        <v>2.3945017847366622E-3</v>
-      </c>
-      <c r="D17" s="2">
-        <f>L17/$Q17</f>
-        <v>1.2885140110500889E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <f>M17/$Q17</f>
-        <v>1.3246465002896316E-2</v>
-      </c>
-      <c r="F17" s="2">
-        <f>N17/$Q17</f>
-        <v>1.2091149411758533E-4</v>
-      </c>
-      <c r="G17" s="2">
-        <f>O17/$Q17</f>
-        <v>8.5115740256738021E-4</v>
-      </c>
-      <c r="H17" s="2">
-        <f>P17/$Q17</f>
-        <v>0.97015044475304024</v>
-      </c>
-      <c r="J17">
-        <v>4487</v>
-      </c>
-      <c r="K17">
-        <v>30577</v>
-      </c>
-      <c r="L17">
-        <v>164539</v>
-      </c>
-      <c r="M17">
-        <v>169153</v>
-      </c>
-      <c r="N17">
-        <v>1544</v>
-      </c>
-      <c r="O17">
-        <v>10869</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="1"/>
-        <v>12388502</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>12769671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
-        <f>J18/$Q18</f>
-        <v>7.5452817256954066E-4</v>
-      </c>
-      <c r="C18" s="2">
-        <f>K18/$Q18</f>
-        <v>4.5785758801933051E-3</v>
-      </c>
-      <c r="D18" s="2">
-        <f>L18/$Q18</f>
-        <v>1.5648139959213783E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <f>M18/$Q18</f>
-        <v>2.0469117888325946E-2</v>
-      </c>
-      <c r="F18" s="2">
-        <f>N18/$Q18</f>
-        <v>3.3174895797548711E-4</v>
-      </c>
-      <c r="G18" s="2">
-        <f>O18/$Q18</f>
-        <v>1.6605576257133672E-3</v>
-      </c>
-      <c r="H18" s="2">
-        <f>P18/$Q18</f>
-        <v>0.95655733151600852</v>
-      </c>
-      <c r="J18">
-        <v>5827</v>
-      </c>
-      <c r="K18">
-        <v>35359</v>
-      </c>
-      <c r="L18">
-        <v>120846</v>
-      </c>
-      <c r="M18">
-        <v>158077</v>
-      </c>
-      <c r="N18">
-        <v>2562</v>
-      </c>
-      <c r="O18">
-        <v>12824</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="1"/>
-        <v>7387212</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>7722707</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2">
-        <f>J19/$Q19</f>
-        <v>6.9244446800670074E-4</v>
-      </c>
-      <c r="C19" s="2">
-        <f>K19/$Q19</f>
-        <v>3.2573086740461574E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <f>L19/$Q19</f>
-        <v>1.0916038152143915E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <f>M19/$Q19</f>
-        <v>2.5035893459100341E-2</v>
-      </c>
-      <c r="F19" s="2">
-        <f>N19/$Q19</f>
-        <v>5.5631180002990331E-4</v>
-      </c>
-      <c r="G19" s="2">
-        <f>O19/$Q19</f>
-        <v>2.7549648359313319E-3</v>
-      </c>
-      <c r="H19" s="2">
-        <f>P19/$Q19</f>
-        <v>0.95678703861074166</v>
-      </c>
-      <c r="J19">
-        <v>15987</v>
-      </c>
-      <c r="K19">
-        <v>75204</v>
-      </c>
-      <c r="L19">
-        <v>252027</v>
-      </c>
-      <c r="M19">
-        <v>578023</v>
-      </c>
-      <c r="N19">
-        <v>12844</v>
-      </c>
-      <c r="O19">
-        <v>63606</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="1"/>
-        <v>22090081</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>23087772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2">
-        <f>J20/$Q20</f>
-        <v>7.2441905477099874E-4</v>
-      </c>
-      <c r="C20" s="2">
-        <f>K20/$Q20</f>
-        <v>2.5626939918121892E-3</v>
-      </c>
-      <c r="D20" s="2">
-        <f>L20/$Q20</f>
-        <v>9.874045213135953E-3</v>
-      </c>
-      <c r="E20" s="2">
-        <f>M20/$Q20</f>
-        <v>3.3330191389336086E-2</v>
-      </c>
-      <c r="F20" s="2">
-        <f>N20/$Q20</f>
-        <v>7.6651332510550255E-4</v>
-      </c>
-      <c r="G20" s="2">
-        <f>O20/$Q20</f>
-        <v>3.7823473830955892E-3</v>
-      </c>
-      <c r="H20" s="2">
-        <f>P20/$Q20</f>
-        <v>0.94895978964274363</v>
-      </c>
-      <c r="J20">
-        <v>16762</v>
-      </c>
-      <c r="K20">
-        <v>59297</v>
-      </c>
-      <c r="L20">
-        <v>228471</v>
-      </c>
-      <c r="M20">
-        <v>771212</v>
-      </c>
-      <c r="N20">
-        <v>17736</v>
-      </c>
-      <c r="O20">
-        <v>87518</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="1"/>
-        <v>21957545</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>23138541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <f>J21/$Q21</f>
-        <v>3.6905195521237064E-4</v>
-      </c>
-      <c r="C21" s="2">
-        <f>K21/$Q21</f>
-        <v>2.9481465198936533E-3</v>
-      </c>
-      <c r="D21" s="2">
-        <f>L21/$Q21</f>
-        <v>1.3901623083777428E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <f>M21/$Q21</f>
-        <v>1.0280226971948237E-2</v>
-      </c>
-      <c r="F21" s="2">
-        <f>N21/$Q21</f>
-        <v>9.8825628174023937E-5</v>
-      </c>
-      <c r="G21" s="2">
-        <f>O21/$Q21</f>
-        <v>7.8579090931386127E-4</v>
-      </c>
-      <c r="H21" s="2">
-        <f>P21/$Q21</f>
-        <v>0.97161633493168043</v>
-      </c>
-      <c r="J21">
-        <v>4063</v>
-      </c>
-      <c r="K21">
-        <v>32457</v>
-      </c>
-      <c r="L21">
-        <v>153047</v>
-      </c>
-      <c r="M21">
-        <v>113178</v>
-      </c>
-      <c r="N21">
-        <v>1088</v>
-      </c>
-      <c r="O21">
-        <v>8651</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="1"/>
-        <v>10696806</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>11009290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
-        <f>J22/$Q22</f>
-        <v>4.8579106657655369E-4</v>
-      </c>
-      <c r="C22" s="2">
-        <f>K22/$Q22</f>
-        <v>2.7288842715222743E-3</v>
-      </c>
-      <c r="D22" s="2">
-        <f>L22/$Q22</f>
-        <v>1.083656775560278E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <f>M22/$Q22</f>
-        <v>1.4688792132910846E-2</v>
-      </c>
-      <c r="F22" s="2">
-        <f>N22/$Q22</f>
-        <v>1.8415140170009766E-4</v>
-      </c>
-      <c r="G22" s="2">
-        <f>O22/$Q22</f>
-        <v>1.0379693480902419E-3</v>
-      </c>
-      <c r="H22" s="2">
-        <f>P22/$Q22</f>
-        <v>0.97003784402359716</v>
-      </c>
-      <c r="J22">
-        <v>8803</v>
-      </c>
-      <c r="K22">
-        <v>49450</v>
-      </c>
-      <c r="L22">
-        <v>196369</v>
-      </c>
-      <c r="M22">
-        <v>266175</v>
-      </c>
-      <c r="N22">
-        <v>3337</v>
-      </c>
-      <c r="O22">
-        <v>18809</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>17578016</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>18120959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <f>J23/$Q23</f>
-        <v>5.3973910548172125E-4</v>
-      </c>
-      <c r="C23" s="2">
-        <f>K23/$Q23</f>
-        <v>3.0469379327699277E-3</v>
-      </c>
-      <c r="D23" s="2">
-        <f>L23/$Q23</f>
-        <v>1.4397654576413043E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <f>M23/$Q23</f>
-        <v>1.5674896060344005E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <f>N23/$Q23</f>
-        <v>1.5218819771574467E-4</v>
-      </c>
-      <c r="G23" s="2">
-        <f>O23/$Q23</f>
-        <v>1.0124177430929752E-3</v>
-      </c>
-      <c r="H23" s="2">
-        <f>P23/$Q23</f>
-        <v>0.96517616638418258</v>
-      </c>
-      <c r="J23">
-        <v>6632</v>
-      </c>
-      <c r="K23">
-        <v>37439</v>
-      </c>
-      <c r="L23">
-        <v>176910</v>
-      </c>
-      <c r="M23">
-        <v>192604</v>
-      </c>
-      <c r="N23">
-        <v>1870</v>
-      </c>
-      <c r="O23">
-        <v>12440</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="1"/>
-        <v>11859523</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>12287418</v>
+        <v>2251</v>
       </c>
     </row>
   </sheetData>
